--- a/ExchangeActiveSync/Docs/MS-ASTASK/MS-ASTASK_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASTASK/MS-ASTASK_RequirementSpecification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90909844-42AE-454C-A890-BF10AA7EBB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D8C5E0-3452-4B79-A247-44B2C9183C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4509,6 +4509,21 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4533,2966 +4548,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="583">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7829,6 +4889,2946 @@
         <vertAlign val="baseline"/>
         <name val="Calibri"/>
         <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
       </font>
     </dxf>
   </dxfs>
@@ -7960,34 +7960,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I624" tableType="xml" totalsRowShown="0" headerRowDxfId="582" dataDxfId="581" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I624" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I624" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="580">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="579">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="578">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="577">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="576">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="575">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="574">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="573">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="572">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7996,12 +7996,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="571" dataDxfId="569" headerRowBorderDxfId="570" tableBorderDxfId="568" totalsRowBorderDxfId="567">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="566"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="565"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="564"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8331,8 +8331,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8382,132 +8382,132 @@
         <v>788</v>
       </c>
       <c r="F3" s="12">
-        <v>43445</v>
+        <v>44516</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8520,12 +8520,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8538,12 +8538,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8556,12 +8556,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -8574,60 +8574,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -23820,11 +23820,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -23832,2093 +23827,2098 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A591:B591 A592:I594 D591:I591 A595:B624 D595:I624 A126:I133 A139:I142 A148:I153 A159:I162 A214:I221 A227:I229 A235:I252 A258:I265 A272:I277 A283:I294 A300:I309 A315:I322 A328:I330 A336:I354 A375:I381 A387:I389 A395:I403 A410:I416 A422:I424 A430:I434 A440:I444 A450:I465 A471:I478 A484:I486 A492:I494 A500:I515 A168:I182 A188:I195 B266:I266 A521:I576 C578:I578 D577:I577 A197:I208 A196:H196 A409:H409 A579:I590 I197:I408 A577:B578 I410:I624 A84:I120 A121:B125 A134:B138 A143:B147 A154:B158 A163:B167 A183:B187 A209:B213 A222:B226 A230:B234 A253:B257 B267:B271 A266:A271 A278:B282 A295:B299 A310:B314 A331:B335 A323:B327 A355:B359 A360:I369 A370:B374 A382:B386 A390:B394 A79:B83 A404:B408 A417:B421 A425:B429 A435:B439 A445:B449 A466:B470 A479:B483 A487:B491 A495:B499 A516:B520 A20:H45 A34:I78 I20:I195">
-    <cfRule type="expression" dxfId="563" priority="615">
+    <cfRule type="expression" dxfId="582" priority="615">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="616">
+    <cfRule type="expression" dxfId="581" priority="616">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="623">
+    <cfRule type="expression" dxfId="580" priority="623">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A591:B591 A592:I594 D591:I591 A595:B624 D595:I624 A126:I133 A139:I142 A148:I153 A159:I162 A214:I221 A227:I229 A235:I252 A258:I265 A272:I277 A283:I294 A300:I309 A315:I322 A328:I330 A336:I354 A375:I381 A387:I389 A395:I403 A410:I416 A422:I424 A430:I434 A440:I444 A450:I465 A471:I478 A484:I486 A492:I494 A500:I515 A168:I182 A188:I195 B266:I266 A521:I576 C578:I578 D577:I577 A197:I208 A196:H196 A409:H409 A579:I590 I197:I408 A577:B578 I410:I624 A84:I120 A121:B125 A134:B138 A143:B147 A154:B158 A163:B167 A183:B187 A209:B213 A222:B226 A230:B234 A253:B257 B267:B271 A266:A271 A278:B282 A295:B299 A310:B314 A331:B335 A323:B327 A355:B359 A360:I369 A370:B374 A382:B386 A390:B394 A79:B83 A404:B408 A417:B421 A425:B429 A435:B439 A445:B449 A466:B470 A479:B483 A487:B491 A495:B499 A516:B520 A20:H45 A34:I78 I20:I195">
-    <cfRule type="expression" dxfId="560" priority="569">
+    <cfRule type="expression" dxfId="579" priority="569">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="570">
+    <cfRule type="expression" dxfId="578" priority="570">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="571">
+    <cfRule type="expression" dxfId="577" priority="571">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126:F133 F139:F142 F148:F153 F159:F162 F168:F182 F188:F208 F214:F221 F227:F229 F235:F252 F258:F266 F272:F277 F283:F294 F300:F309 F315:F322 F328:F330 F336:F354 F375:F381 F387:F389 F395:F403 F409:F416 F422:F424 F430:F434 F440:F444 F450:F465 F471:F478 F484:F486 F492:F494 F500:F515 F521:F624 F84:F120 F360:F369 F20:F78">
-    <cfRule type="expression" dxfId="557" priority="575">
+    <cfRule type="expression" dxfId="576" priority="575">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="576">
+    <cfRule type="expression" dxfId="575" priority="576">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C591">
-    <cfRule type="expression" dxfId="555" priority="560">
+    <cfRule type="expression" dxfId="574" priority="560">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="561">
+    <cfRule type="expression" dxfId="573" priority="561">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="562">
+    <cfRule type="expression" dxfId="572" priority="562">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C591">
-    <cfRule type="expression" dxfId="552" priority="557">
+    <cfRule type="expression" dxfId="571" priority="557">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="551" priority="558">
+    <cfRule type="expression" dxfId="570" priority="558">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="559">
+    <cfRule type="expression" dxfId="569" priority="559">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C595:C612">
-    <cfRule type="expression" dxfId="549" priority="554">
+    <cfRule type="expression" dxfId="568" priority="554">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="555">
+    <cfRule type="expression" dxfId="567" priority="555">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="556">
+    <cfRule type="expression" dxfId="566" priority="556">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C595:C612">
-    <cfRule type="expression" dxfId="546" priority="551">
+    <cfRule type="expression" dxfId="565" priority="551">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="552">
+    <cfRule type="expression" dxfId="564" priority="552">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="553">
+    <cfRule type="expression" dxfId="563" priority="553">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C613:C624">
-    <cfRule type="expression" dxfId="543" priority="548">
+    <cfRule type="expression" dxfId="562" priority="548">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="549">
+    <cfRule type="expression" dxfId="561" priority="549">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="550">
+    <cfRule type="expression" dxfId="560" priority="550">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C613:C624">
-    <cfRule type="expression" dxfId="540" priority="545">
+    <cfRule type="expression" dxfId="559" priority="545">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="546">
+    <cfRule type="expression" dxfId="558" priority="546">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="547">
+    <cfRule type="expression" dxfId="557" priority="547">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:D83">
-    <cfRule type="expression" dxfId="537" priority="542">
+    <cfRule type="expression" dxfId="556" priority="542">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="543">
+    <cfRule type="expression" dxfId="555" priority="543">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="544">
+    <cfRule type="expression" dxfId="554" priority="544">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:D83">
-    <cfRule type="expression" dxfId="534" priority="539">
+    <cfRule type="expression" dxfId="553" priority="539">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="540">
+    <cfRule type="expression" dxfId="552" priority="540">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="541">
+    <cfRule type="expression" dxfId="551" priority="541">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C83">
-    <cfRule type="expression" dxfId="531" priority="536">
+    <cfRule type="expression" dxfId="550" priority="536">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="537">
+    <cfRule type="expression" dxfId="549" priority="537">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="538">
+    <cfRule type="expression" dxfId="548" priority="538">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C83">
-    <cfRule type="expression" dxfId="528" priority="533">
+    <cfRule type="expression" dxfId="547" priority="533">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="527" priority="534">
+    <cfRule type="expression" dxfId="546" priority="534">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="535">
+    <cfRule type="expression" dxfId="545" priority="535">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:H83">
-    <cfRule type="expression" dxfId="525" priority="530">
+    <cfRule type="expression" dxfId="544" priority="530">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="531">
+    <cfRule type="expression" dxfId="543" priority="531">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="532">
+    <cfRule type="expression" dxfId="542" priority="532">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:H83">
-    <cfRule type="expression" dxfId="522" priority="525">
+    <cfRule type="expression" dxfId="541" priority="525">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="526">
+    <cfRule type="expression" dxfId="540" priority="526">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="527">
+    <cfRule type="expression" dxfId="539" priority="527">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F83">
-    <cfRule type="expression" dxfId="519" priority="528">
+    <cfRule type="expression" dxfId="538" priority="528">
       <formula>NOT(VLOOKUP(F79,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="529">
+    <cfRule type="expression" dxfId="537" priority="529">
       <formula>(VLOOKUP(F79,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:D138 D121:D125">
-    <cfRule type="expression" dxfId="517" priority="522">
+    <cfRule type="expression" dxfId="536" priority="522">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="523">
+    <cfRule type="expression" dxfId="535" priority="523">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="524">
+    <cfRule type="expression" dxfId="534" priority="524">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:D138 D121:D125">
-    <cfRule type="expression" dxfId="514" priority="519">
+    <cfRule type="expression" dxfId="533" priority="519">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="520">
+    <cfRule type="expression" dxfId="532" priority="520">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="521">
+    <cfRule type="expression" dxfId="531" priority="521">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:C125 C134:C138">
-    <cfRule type="expression" dxfId="511" priority="516">
+    <cfRule type="expression" dxfId="530" priority="516">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="517">
+    <cfRule type="expression" dxfId="529" priority="517">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="518">
+    <cfRule type="expression" dxfId="528" priority="518">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:C125 C134:C138">
-    <cfRule type="expression" dxfId="508" priority="513">
+    <cfRule type="expression" dxfId="527" priority="513">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="514">
+    <cfRule type="expression" dxfId="526" priority="514">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="515">
+    <cfRule type="expression" dxfId="525" priority="515">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121:G125 E134:G138">
-    <cfRule type="expression" dxfId="505" priority="510">
+    <cfRule type="expression" dxfId="524" priority="510">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="511">
+    <cfRule type="expression" dxfId="523" priority="511">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="503" priority="512">
+    <cfRule type="expression" dxfId="522" priority="512">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121:G125 E134:G138">
-    <cfRule type="expression" dxfId="502" priority="505">
+    <cfRule type="expression" dxfId="521" priority="505">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="506">
+    <cfRule type="expression" dxfId="520" priority="506">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="507">
+    <cfRule type="expression" dxfId="519" priority="507">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F121:F125 F134:F138">
-    <cfRule type="expression" dxfId="499" priority="508">
+    <cfRule type="expression" dxfId="518" priority="508">
       <formula>NOT(VLOOKUP(F121,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="509">
+    <cfRule type="expression" dxfId="517" priority="509">
       <formula>(VLOOKUP(F121,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154:D158 D143:D147">
-    <cfRule type="expression" dxfId="497" priority="502">
+    <cfRule type="expression" dxfId="516" priority="502">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="503">
+    <cfRule type="expression" dxfId="515" priority="503">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="504">
+    <cfRule type="expression" dxfId="514" priority="504">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154:D158 D143:D147">
-    <cfRule type="expression" dxfId="494" priority="499">
+    <cfRule type="expression" dxfId="513" priority="499">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="500">
+    <cfRule type="expression" dxfId="512" priority="500">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="501">
+    <cfRule type="expression" dxfId="511" priority="501">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143:C147 C154:C158">
-    <cfRule type="expression" dxfId="491" priority="496">
+    <cfRule type="expression" dxfId="510" priority="496">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="497">
+    <cfRule type="expression" dxfId="509" priority="497">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="498">
+    <cfRule type="expression" dxfId="508" priority="498">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143:C147 C154:C158">
-    <cfRule type="expression" dxfId="488" priority="493">
+    <cfRule type="expression" dxfId="507" priority="493">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="494">
+    <cfRule type="expression" dxfId="506" priority="494">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="495">
+    <cfRule type="expression" dxfId="505" priority="495">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:G157 E143:G147">
-    <cfRule type="expression" dxfId="485" priority="490">
+    <cfRule type="expression" dxfId="504" priority="490">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="491">
+    <cfRule type="expression" dxfId="503" priority="491">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="492">
+    <cfRule type="expression" dxfId="502" priority="492">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:G157 E143:G147">
-    <cfRule type="expression" dxfId="482" priority="485">
+    <cfRule type="expression" dxfId="501" priority="485">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="486">
+    <cfRule type="expression" dxfId="500" priority="486">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="487">
+    <cfRule type="expression" dxfId="499" priority="487">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F154:F157 F143:F147">
-    <cfRule type="expression" dxfId="479" priority="488">
+    <cfRule type="expression" dxfId="498" priority="488">
       <formula>NOT(VLOOKUP(F143,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="489">
+    <cfRule type="expression" dxfId="497" priority="489">
       <formula>(VLOOKUP(F143,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D183:D187 D163:D167">
-    <cfRule type="expression" dxfId="477" priority="482">
+    <cfRule type="expression" dxfId="496" priority="482">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="483">
+    <cfRule type="expression" dxfId="495" priority="483">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="484">
+    <cfRule type="expression" dxfId="494" priority="484">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D183:D187 D163:D167">
-    <cfRule type="expression" dxfId="474" priority="479">
+    <cfRule type="expression" dxfId="493" priority="479">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="480">
+    <cfRule type="expression" dxfId="492" priority="480">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="481">
+    <cfRule type="expression" dxfId="491" priority="481">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163:C167 C183:C187">
-    <cfRule type="expression" dxfId="471" priority="476">
+    <cfRule type="expression" dxfId="490" priority="476">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="477">
+    <cfRule type="expression" dxfId="489" priority="477">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="478">
+    <cfRule type="expression" dxfId="488" priority="478">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163:C167 C183:C187">
-    <cfRule type="expression" dxfId="468" priority="473">
+    <cfRule type="expression" dxfId="487" priority="473">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="474">
+    <cfRule type="expression" dxfId="486" priority="474">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="475">
+    <cfRule type="expression" dxfId="485" priority="475">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E183:G187 E163:G167">
-    <cfRule type="expression" dxfId="465" priority="470">
+    <cfRule type="expression" dxfId="484" priority="470">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="471">
+    <cfRule type="expression" dxfId="483" priority="471">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="472">
+    <cfRule type="expression" dxfId="482" priority="472">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E183:G187 E163:G167">
-    <cfRule type="expression" dxfId="462" priority="465">
+    <cfRule type="expression" dxfId="481" priority="465">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="466">
+    <cfRule type="expression" dxfId="480" priority="466">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="467">
+    <cfRule type="expression" dxfId="479" priority="467">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F183:F187 F163:F167">
-    <cfRule type="expression" dxfId="459" priority="468">
+    <cfRule type="expression" dxfId="478" priority="468">
       <formula>NOT(VLOOKUP(F163,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="469">
+    <cfRule type="expression" dxfId="477" priority="469">
       <formula>(VLOOKUP(F163,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D222:D226 D209:D213">
-    <cfRule type="expression" dxfId="457" priority="462">
+    <cfRule type="expression" dxfId="476" priority="462">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="463">
+    <cfRule type="expression" dxfId="475" priority="463">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="464">
+    <cfRule type="expression" dxfId="474" priority="464">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D222:D226 D209:D213">
-    <cfRule type="expression" dxfId="454" priority="459">
+    <cfRule type="expression" dxfId="473" priority="459">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="460">
+    <cfRule type="expression" dxfId="472" priority="460">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="461">
+    <cfRule type="expression" dxfId="471" priority="461">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C209:C213 C222:C226">
-    <cfRule type="expression" dxfId="451" priority="456">
+    <cfRule type="expression" dxfId="470" priority="456">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="457">
+    <cfRule type="expression" dxfId="469" priority="457">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="458">
+    <cfRule type="expression" dxfId="468" priority="458">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C209:C213 C222:C226">
-    <cfRule type="expression" dxfId="448" priority="453">
+    <cfRule type="expression" dxfId="467" priority="453">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="454">
+    <cfRule type="expression" dxfId="466" priority="454">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="455">
+    <cfRule type="expression" dxfId="465" priority="455">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E209:G213 E222:G226">
-    <cfRule type="expression" dxfId="445" priority="450">
+    <cfRule type="expression" dxfId="464" priority="450">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="451">
+    <cfRule type="expression" dxfId="463" priority="451">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="452">
+    <cfRule type="expression" dxfId="462" priority="452">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E209:G213 E222:G226">
-    <cfRule type="expression" dxfId="442" priority="445">
+    <cfRule type="expression" dxfId="461" priority="445">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="446">
+    <cfRule type="expression" dxfId="460" priority="446">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="447">
+    <cfRule type="expression" dxfId="459" priority="447">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F209:F213 F222:F226">
-    <cfRule type="expression" dxfId="439" priority="448">
+    <cfRule type="expression" dxfId="458" priority="448">
       <formula>NOT(VLOOKUP(F209,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="449">
+    <cfRule type="expression" dxfId="457" priority="449">
       <formula>(VLOOKUP(F209,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D253:D257 D230:D234">
-    <cfRule type="expression" dxfId="437" priority="442">
+    <cfRule type="expression" dxfId="456" priority="442">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="443">
+    <cfRule type="expression" dxfId="455" priority="443">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="444">
+    <cfRule type="expression" dxfId="454" priority="444">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D253:D257 D230:D234">
-    <cfRule type="expression" dxfId="434" priority="439">
+    <cfRule type="expression" dxfId="453" priority="439">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="440">
+    <cfRule type="expression" dxfId="452" priority="440">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="441">
+    <cfRule type="expression" dxfId="451" priority="441">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230:C234 C253:C257">
-    <cfRule type="expression" dxfId="431" priority="436">
+    <cfRule type="expression" dxfId="450" priority="436">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="437">
+    <cfRule type="expression" dxfId="449" priority="437">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="438">
+    <cfRule type="expression" dxfId="448" priority="438">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230:C234 C253:C257">
-    <cfRule type="expression" dxfId="428" priority="433">
+    <cfRule type="expression" dxfId="447" priority="433">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="434">
+    <cfRule type="expression" dxfId="446" priority="434">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="435">
+    <cfRule type="expression" dxfId="445" priority="435">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E230:G234 E253:G257">
-    <cfRule type="expression" dxfId="425" priority="430">
+    <cfRule type="expression" dxfId="444" priority="430">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="431">
+    <cfRule type="expression" dxfId="443" priority="431">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="432">
+    <cfRule type="expression" dxfId="442" priority="432">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E230:G234 E253:G257">
-    <cfRule type="expression" dxfId="422" priority="425">
+    <cfRule type="expression" dxfId="441" priority="425">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="426">
+    <cfRule type="expression" dxfId="440" priority="426">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="427">
+    <cfRule type="expression" dxfId="439" priority="427">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F230:F234 F253:F257">
-    <cfRule type="expression" dxfId="419" priority="428">
+    <cfRule type="expression" dxfId="438" priority="428">
       <formula>NOT(VLOOKUP(F230,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="429">
+    <cfRule type="expression" dxfId="437" priority="429">
       <formula>(VLOOKUP(F230,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D278:D282 D267:D271">
-    <cfRule type="expression" dxfId="417" priority="422">
+    <cfRule type="expression" dxfId="436" priority="422">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="423">
+    <cfRule type="expression" dxfId="435" priority="423">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="424">
+    <cfRule type="expression" dxfId="434" priority="424">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D278:D282 D267:D271">
-    <cfRule type="expression" dxfId="414" priority="419">
+    <cfRule type="expression" dxfId="433" priority="419">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="420">
+    <cfRule type="expression" dxfId="432" priority="420">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="421">
+    <cfRule type="expression" dxfId="431" priority="421">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C267:C271 C278:C282">
-    <cfRule type="expression" dxfId="411" priority="416">
+    <cfRule type="expression" dxfId="430" priority="416">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="417">
+    <cfRule type="expression" dxfId="429" priority="417">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="418">
+    <cfRule type="expression" dxfId="428" priority="418">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C267:C271 C278:C282">
-    <cfRule type="expression" dxfId="408" priority="413">
+    <cfRule type="expression" dxfId="427" priority="413">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="414">
+    <cfRule type="expression" dxfId="426" priority="414">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="415">
+    <cfRule type="expression" dxfId="425" priority="415">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E278:G281 E267:G270">
-    <cfRule type="expression" dxfId="405" priority="410">
+    <cfRule type="expression" dxfId="424" priority="410">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="411">
+    <cfRule type="expression" dxfId="423" priority="411">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="412">
+    <cfRule type="expression" dxfId="422" priority="412">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E278:G281 E267:G270">
-    <cfRule type="expression" dxfId="402" priority="405">
+    <cfRule type="expression" dxfId="421" priority="405">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="406">
+    <cfRule type="expression" dxfId="420" priority="406">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="407">
+    <cfRule type="expression" dxfId="419" priority="407">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F278:F281 F267:F270">
-    <cfRule type="expression" dxfId="399" priority="408">
+    <cfRule type="expression" dxfId="418" priority="408">
       <formula>NOT(VLOOKUP(F267,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="409">
+    <cfRule type="expression" dxfId="417" priority="409">
       <formula>(VLOOKUP(F267,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D310:D314 D295:D299">
-    <cfRule type="expression" dxfId="397" priority="402">
+    <cfRule type="expression" dxfId="416" priority="402">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="403">
+    <cfRule type="expression" dxfId="415" priority="403">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="404">
+    <cfRule type="expression" dxfId="414" priority="404">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D310:D314 D295:D299">
-    <cfRule type="expression" dxfId="394" priority="399">
+    <cfRule type="expression" dxfId="413" priority="399">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="400">
+    <cfRule type="expression" dxfId="412" priority="400">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="401">
+    <cfRule type="expression" dxfId="411" priority="401">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C295:C299 C310:C314">
-    <cfRule type="expression" dxfId="391" priority="396">
+    <cfRule type="expression" dxfId="410" priority="396">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="397">
+    <cfRule type="expression" dxfId="409" priority="397">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="398">
+    <cfRule type="expression" dxfId="408" priority="398">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C295:C299 C310:C314">
-    <cfRule type="expression" dxfId="388" priority="393">
+    <cfRule type="expression" dxfId="407" priority="393">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="394">
+    <cfRule type="expression" dxfId="406" priority="394">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="395">
+    <cfRule type="expression" dxfId="405" priority="395">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E310:G313 E295:G298">
-    <cfRule type="expression" dxfId="385" priority="390">
+    <cfRule type="expression" dxfId="404" priority="390">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="391">
+    <cfRule type="expression" dxfId="403" priority="391">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="392">
+    <cfRule type="expression" dxfId="402" priority="392">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E310:G313 E295:G298">
-    <cfRule type="expression" dxfId="382" priority="385">
+    <cfRule type="expression" dxfId="401" priority="385">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="386">
+    <cfRule type="expression" dxfId="400" priority="386">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="387">
+    <cfRule type="expression" dxfId="399" priority="387">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F310:F313 F295:F298">
-    <cfRule type="expression" dxfId="379" priority="388">
+    <cfRule type="expression" dxfId="398" priority="388">
       <formula>NOT(VLOOKUP(F295,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="389">
+    <cfRule type="expression" dxfId="397" priority="389">
       <formula>(VLOOKUP(F295,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D331:D335 D323:D327">
-    <cfRule type="expression" dxfId="377" priority="382">
+    <cfRule type="expression" dxfId="396" priority="382">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="383">
+    <cfRule type="expression" dxfId="395" priority="383">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="384">
+    <cfRule type="expression" dxfId="394" priority="384">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D331:D335 D323:D327">
-    <cfRule type="expression" dxfId="374" priority="379">
+    <cfRule type="expression" dxfId="393" priority="379">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="380">
+    <cfRule type="expression" dxfId="392" priority="380">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="381">
+    <cfRule type="expression" dxfId="391" priority="381">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C331:C335 C323:C327">
-    <cfRule type="expression" dxfId="371" priority="376">
+    <cfRule type="expression" dxfId="390" priority="376">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="377">
+    <cfRule type="expression" dxfId="389" priority="377">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="378">
+    <cfRule type="expression" dxfId="388" priority="378">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C331:C335 C323:C327">
-    <cfRule type="expression" dxfId="368" priority="373">
+    <cfRule type="expression" dxfId="387" priority="373">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="374">
+    <cfRule type="expression" dxfId="386" priority="374">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="375">
+    <cfRule type="expression" dxfId="385" priority="375">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E331:G334 E323:G326">
-    <cfRule type="expression" dxfId="365" priority="370">
+    <cfRule type="expression" dxfId="384" priority="370">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="371">
+    <cfRule type="expression" dxfId="383" priority="371">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="372">
+    <cfRule type="expression" dxfId="382" priority="372">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E331:G334 E323:G326">
-    <cfRule type="expression" dxfId="362" priority="365">
+    <cfRule type="expression" dxfId="381" priority="365">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="366">
+    <cfRule type="expression" dxfId="380" priority="366">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="367">
+    <cfRule type="expression" dxfId="379" priority="367">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F331:F334 F323:F326">
-    <cfRule type="expression" dxfId="359" priority="368">
+    <cfRule type="expression" dxfId="378" priority="368">
       <formula>NOT(VLOOKUP(F323,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="369">
+    <cfRule type="expression" dxfId="377" priority="369">
       <formula>(VLOOKUP(F323,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D370:D374 D355:D359">
-    <cfRule type="expression" dxfId="357" priority="362">
+    <cfRule type="expression" dxfId="376" priority="362">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="363">
+    <cfRule type="expression" dxfId="375" priority="363">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="364">
+    <cfRule type="expression" dxfId="374" priority="364">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D370:D374 D355:D359">
-    <cfRule type="expression" dxfId="354" priority="359">
+    <cfRule type="expression" dxfId="373" priority="359">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="360">
+    <cfRule type="expression" dxfId="372" priority="360">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="361">
+    <cfRule type="expression" dxfId="371" priority="361">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C355:C359 C370:C374">
-    <cfRule type="expression" dxfId="351" priority="356">
+    <cfRule type="expression" dxfId="370" priority="356">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="357">
+    <cfRule type="expression" dxfId="369" priority="357">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="358">
+    <cfRule type="expression" dxfId="368" priority="358">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C355:C359 C370:C374">
-    <cfRule type="expression" dxfId="348" priority="353">
+    <cfRule type="expression" dxfId="367" priority="353">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="354">
+    <cfRule type="expression" dxfId="366" priority="354">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="355">
+    <cfRule type="expression" dxfId="365" priority="355">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E355:G358 E370:G374">
-    <cfRule type="expression" dxfId="345" priority="350">
+    <cfRule type="expression" dxfId="364" priority="350">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="351">
+    <cfRule type="expression" dxfId="363" priority="351">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="352">
+    <cfRule type="expression" dxfId="362" priority="352">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E355:G358 E370:G374">
-    <cfRule type="expression" dxfId="342" priority="345">
+    <cfRule type="expression" dxfId="361" priority="345">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="346">
+    <cfRule type="expression" dxfId="360" priority="346">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="347">
+    <cfRule type="expression" dxfId="359" priority="347">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F355:F358 F370:F374">
-    <cfRule type="expression" dxfId="339" priority="348">
+    <cfRule type="expression" dxfId="358" priority="348">
       <formula>NOT(VLOOKUP(F355,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="349">
+    <cfRule type="expression" dxfId="357" priority="349">
       <formula>(VLOOKUP(F355,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D390:D394 D382:D386">
-    <cfRule type="expression" dxfId="337" priority="342">
+    <cfRule type="expression" dxfId="356" priority="342">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="343">
+    <cfRule type="expression" dxfId="355" priority="343">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="344">
+    <cfRule type="expression" dxfId="354" priority="344">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D390:D394 D382:D386">
-    <cfRule type="expression" dxfId="334" priority="339">
+    <cfRule type="expression" dxfId="353" priority="339">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="340">
+    <cfRule type="expression" dxfId="352" priority="340">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="341">
+    <cfRule type="expression" dxfId="351" priority="341">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C382:C386 C390:C394">
-    <cfRule type="expression" dxfId="331" priority="336">
+    <cfRule type="expression" dxfId="350" priority="336">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="337">
+    <cfRule type="expression" dxfId="349" priority="337">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="338">
+    <cfRule type="expression" dxfId="348" priority="338">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C382:C386 C390:C394">
-    <cfRule type="expression" dxfId="328" priority="333">
+    <cfRule type="expression" dxfId="347" priority="333">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="334">
+    <cfRule type="expression" dxfId="346" priority="334">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="335">
+    <cfRule type="expression" dxfId="345" priority="335">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E390:G393 E382:G385">
-    <cfRule type="expression" dxfId="325" priority="330">
+    <cfRule type="expression" dxfId="344" priority="330">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="331">
+    <cfRule type="expression" dxfId="343" priority="331">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="332">
+    <cfRule type="expression" dxfId="342" priority="332">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E390:G393 E382:G385">
-    <cfRule type="expression" dxfId="322" priority="325">
+    <cfRule type="expression" dxfId="341" priority="325">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="326">
+    <cfRule type="expression" dxfId="340" priority="326">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="327">
+    <cfRule type="expression" dxfId="339" priority="327">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F390:F393 F382:F385">
-    <cfRule type="expression" dxfId="319" priority="328">
+    <cfRule type="expression" dxfId="338" priority="328">
       <formula>NOT(VLOOKUP(F382,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="329">
+    <cfRule type="expression" dxfId="337" priority="329">
       <formula>(VLOOKUP(F382,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D417:D421 D404:D408">
-    <cfRule type="expression" dxfId="317" priority="322">
+    <cfRule type="expression" dxfId="336" priority="322">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="323">
+    <cfRule type="expression" dxfId="335" priority="323">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="324">
+    <cfRule type="expression" dxfId="334" priority="324">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D417:D421 D404:D408">
-    <cfRule type="expression" dxfId="314" priority="319">
+    <cfRule type="expression" dxfId="333" priority="319">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="320">
+    <cfRule type="expression" dxfId="332" priority="320">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="321">
+    <cfRule type="expression" dxfId="331" priority="321">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C404:C408 C417:C421">
-    <cfRule type="expression" dxfId="311" priority="316">
+    <cfRule type="expression" dxfId="330" priority="316">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="317">
+    <cfRule type="expression" dxfId="329" priority="317">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="318">
+    <cfRule type="expression" dxfId="328" priority="318">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C404:C408 C417:C421">
-    <cfRule type="expression" dxfId="308" priority="313">
+    <cfRule type="expression" dxfId="327" priority="313">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="314">
+    <cfRule type="expression" dxfId="326" priority="314">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="315">
+    <cfRule type="expression" dxfId="325" priority="315">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E404:G408 E417:G421">
-    <cfRule type="expression" dxfId="305" priority="310">
+    <cfRule type="expression" dxfId="324" priority="310">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="311">
+    <cfRule type="expression" dxfId="323" priority="311">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="312">
+    <cfRule type="expression" dxfId="322" priority="312">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E404:G408 E417:G421">
-    <cfRule type="expression" dxfId="302" priority="305">
+    <cfRule type="expression" dxfId="321" priority="305">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="306">
+    <cfRule type="expression" dxfId="320" priority="306">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="307">
+    <cfRule type="expression" dxfId="319" priority="307">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F404:F408 F417:F421">
-    <cfRule type="expression" dxfId="299" priority="308">
+    <cfRule type="expression" dxfId="318" priority="308">
       <formula>NOT(VLOOKUP(F404,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="309">
+    <cfRule type="expression" dxfId="317" priority="309">
       <formula>(VLOOKUP(F404,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D435:D439 D425:D429">
-    <cfRule type="expression" dxfId="297" priority="302">
+    <cfRule type="expression" dxfId="316" priority="302">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="303">
+    <cfRule type="expression" dxfId="315" priority="303">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="304">
+    <cfRule type="expression" dxfId="314" priority="304">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D435:D439 D425:D429">
-    <cfRule type="expression" dxfId="294" priority="299">
+    <cfRule type="expression" dxfId="313" priority="299">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="300">
+    <cfRule type="expression" dxfId="312" priority="300">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="301">
+    <cfRule type="expression" dxfId="311" priority="301">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C425:C429 C435:C439">
-    <cfRule type="expression" dxfId="291" priority="296">
+    <cfRule type="expression" dxfId="310" priority="296">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="297">
+    <cfRule type="expression" dxfId="309" priority="297">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="298">
+    <cfRule type="expression" dxfId="308" priority="298">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C425:C429 C435:C439">
-    <cfRule type="expression" dxfId="288" priority="293">
+    <cfRule type="expression" dxfId="307" priority="293">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="294">
+    <cfRule type="expression" dxfId="306" priority="294">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="295">
+    <cfRule type="expression" dxfId="305" priority="295">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E435:G438 E425:G428">
-    <cfRule type="expression" dxfId="285" priority="290">
+    <cfRule type="expression" dxfId="304" priority="290">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="291">
+    <cfRule type="expression" dxfId="303" priority="291">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="292">
+    <cfRule type="expression" dxfId="302" priority="292">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E435:G438 E425:G428">
-    <cfRule type="expression" dxfId="282" priority="285">
+    <cfRule type="expression" dxfId="301" priority="285">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="286">
+    <cfRule type="expression" dxfId="300" priority="286">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="287">
+    <cfRule type="expression" dxfId="299" priority="287">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F435:F438 F425:F428">
-    <cfRule type="expression" dxfId="279" priority="288">
+    <cfRule type="expression" dxfId="298" priority="288">
       <formula>NOT(VLOOKUP(F425,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="289">
+    <cfRule type="expression" dxfId="297" priority="289">
       <formula>(VLOOKUP(F425,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D466:D470 D445:D449">
-    <cfRule type="expression" dxfId="277" priority="282">
+    <cfRule type="expression" dxfId="296" priority="282">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="283">
+    <cfRule type="expression" dxfId="295" priority="283">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="284">
+    <cfRule type="expression" dxfId="294" priority="284">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D466:D470 D445:D449">
-    <cfRule type="expression" dxfId="274" priority="279">
+    <cfRule type="expression" dxfId="293" priority="279">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="280">
+    <cfRule type="expression" dxfId="292" priority="280">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="281">
+    <cfRule type="expression" dxfId="291" priority="281">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C445:C449 C466:C470">
-    <cfRule type="expression" dxfId="271" priority="276">
+    <cfRule type="expression" dxfId="290" priority="276">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="277">
+    <cfRule type="expression" dxfId="289" priority="277">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="278">
+    <cfRule type="expression" dxfId="288" priority="278">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C445:C449 C466:C470">
-    <cfRule type="expression" dxfId="268" priority="273">
+    <cfRule type="expression" dxfId="287" priority="273">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="274">
+    <cfRule type="expression" dxfId="286" priority="274">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="275">
+    <cfRule type="expression" dxfId="285" priority="275">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E466:G469 E445:G449">
-    <cfRule type="expression" dxfId="265" priority="270">
+    <cfRule type="expression" dxfId="284" priority="270">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="271">
+    <cfRule type="expression" dxfId="283" priority="271">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="272">
+    <cfRule type="expression" dxfId="282" priority="272">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E466:G469 E445:G449">
-    <cfRule type="expression" dxfId="262" priority="265">
+    <cfRule type="expression" dxfId="281" priority="265">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="266">
+    <cfRule type="expression" dxfId="280" priority="266">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="267">
+    <cfRule type="expression" dxfId="279" priority="267">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F466:F469 F445:F449">
-    <cfRule type="expression" dxfId="259" priority="268">
+    <cfRule type="expression" dxfId="278" priority="268">
       <formula>NOT(VLOOKUP(F445,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="269">
+    <cfRule type="expression" dxfId="277" priority="269">
       <formula>(VLOOKUP(F445,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D487:D491 D479:D483">
-    <cfRule type="expression" dxfId="257" priority="262">
+    <cfRule type="expression" dxfId="276" priority="262">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="263">
+    <cfRule type="expression" dxfId="275" priority="263">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="264">
+    <cfRule type="expression" dxfId="274" priority="264">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D487:D491 D479:D483">
-    <cfRule type="expression" dxfId="254" priority="259">
+    <cfRule type="expression" dxfId="273" priority="259">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="260">
+    <cfRule type="expression" dxfId="272" priority="260">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="261">
+    <cfRule type="expression" dxfId="271" priority="261">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C479:C483 C487:C491">
-    <cfRule type="expression" dxfId="251" priority="256">
+    <cfRule type="expression" dxfId="270" priority="256">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="257">
+    <cfRule type="expression" dxfId="269" priority="257">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="258">
+    <cfRule type="expression" dxfId="268" priority="258">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C479:C483 C487:C491">
-    <cfRule type="expression" dxfId="248" priority="253">
+    <cfRule type="expression" dxfId="267" priority="253">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="254">
+    <cfRule type="expression" dxfId="266" priority="254">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="255">
+    <cfRule type="expression" dxfId="265" priority="255">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E479:G483 E487:G491">
-    <cfRule type="expression" dxfId="245" priority="250">
+    <cfRule type="expression" dxfId="264" priority="250">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="251">
+    <cfRule type="expression" dxfId="263" priority="251">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="252">
+    <cfRule type="expression" dxfId="262" priority="252">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E479:G483 E487:G491">
-    <cfRule type="expression" dxfId="242" priority="245">
+    <cfRule type="expression" dxfId="261" priority="245">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="246">
+    <cfRule type="expression" dxfId="260" priority="246">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="247">
+    <cfRule type="expression" dxfId="259" priority="247">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F479:F483 F487:F491">
-    <cfRule type="expression" dxfId="239" priority="248">
+    <cfRule type="expression" dxfId="258" priority="248">
       <formula>NOT(VLOOKUP(F479,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="249">
+    <cfRule type="expression" dxfId="257" priority="249">
       <formula>(VLOOKUP(F479,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D516:D520 D495:D499">
-    <cfRule type="expression" dxfId="237" priority="242">
+    <cfRule type="expression" dxfId="256" priority="242">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="243">
+    <cfRule type="expression" dxfId="255" priority="243">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="244">
+    <cfRule type="expression" dxfId="254" priority="244">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D516:D520 D495:D499">
-    <cfRule type="expression" dxfId="234" priority="239">
+    <cfRule type="expression" dxfId="253" priority="239">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="240">
+    <cfRule type="expression" dxfId="252" priority="240">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="241">
+    <cfRule type="expression" dxfId="251" priority="241">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C495:C499 C516:C520">
-    <cfRule type="expression" dxfId="231" priority="236">
+    <cfRule type="expression" dxfId="250" priority="236">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="237">
+    <cfRule type="expression" dxfId="249" priority="237">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="238">
+    <cfRule type="expression" dxfId="248" priority="238">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C495:C499 C516:C520">
-    <cfRule type="expression" dxfId="228" priority="233">
+    <cfRule type="expression" dxfId="247" priority="233">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="234">
+    <cfRule type="expression" dxfId="246" priority="234">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="235">
+    <cfRule type="expression" dxfId="245" priority="235">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E495:G499 E516:G520">
-    <cfRule type="expression" dxfId="225" priority="230">
+    <cfRule type="expression" dxfId="244" priority="230">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="231">
+    <cfRule type="expression" dxfId="243" priority="231">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="232">
+    <cfRule type="expression" dxfId="242" priority="232">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E495:G499 E516:G520">
-    <cfRule type="expression" dxfId="222" priority="225">
+    <cfRule type="expression" dxfId="241" priority="225">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="226">
+    <cfRule type="expression" dxfId="240" priority="226">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="227">
+    <cfRule type="expression" dxfId="239" priority="227">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F495:F499 F516:F520">
-    <cfRule type="expression" dxfId="219" priority="228">
+    <cfRule type="expression" dxfId="238" priority="228">
       <formula>NOT(VLOOKUP(F495,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="229">
+    <cfRule type="expression" dxfId="237" priority="229">
       <formula>(VLOOKUP(F495,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I196">
-    <cfRule type="expression" dxfId="217" priority="222">
+    <cfRule type="expression" dxfId="236" priority="222">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="223">
+    <cfRule type="expression" dxfId="235" priority="223">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="224">
+    <cfRule type="expression" dxfId="234" priority="224">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I196">
-    <cfRule type="expression" dxfId="214" priority="219">
+    <cfRule type="expression" dxfId="233" priority="219">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="220">
+    <cfRule type="expression" dxfId="232" priority="220">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="221">
+    <cfRule type="expression" dxfId="231" priority="221">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="expression" dxfId="211" priority="216">
+    <cfRule type="expression" dxfId="230" priority="216">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="217">
+    <cfRule type="expression" dxfId="229" priority="217">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="218">
+    <cfRule type="expression" dxfId="228" priority="218">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="expression" dxfId="208" priority="213">
+    <cfRule type="expression" dxfId="227" priority="213">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="214">
+    <cfRule type="expression" dxfId="226" priority="214">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="215">
+    <cfRule type="expression" dxfId="225" priority="215">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:H125">
-    <cfRule type="expression" dxfId="205" priority="210">
+    <cfRule type="expression" dxfId="224" priority="210">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="211">
+    <cfRule type="expression" dxfId="223" priority="211">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="212">
+    <cfRule type="expression" dxfId="222" priority="212">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:H125">
-    <cfRule type="expression" dxfId="202" priority="207">
+    <cfRule type="expression" dxfId="221" priority="207">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="208">
+    <cfRule type="expression" dxfId="220" priority="208">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="209">
+    <cfRule type="expression" dxfId="219" priority="209">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134:H138">
-    <cfRule type="expression" dxfId="199" priority="204">
+    <cfRule type="expression" dxfId="218" priority="204">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="205">
+    <cfRule type="expression" dxfId="217" priority="205">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="206">
+    <cfRule type="expression" dxfId="216" priority="206">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134:H138">
-    <cfRule type="expression" dxfId="196" priority="201">
+    <cfRule type="expression" dxfId="215" priority="201">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="202">
+    <cfRule type="expression" dxfId="214" priority="202">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="203">
+    <cfRule type="expression" dxfId="213" priority="203">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143:H147">
-    <cfRule type="expression" dxfId="193" priority="198">
+    <cfRule type="expression" dxfId="212" priority="198">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="199">
+    <cfRule type="expression" dxfId="211" priority="199">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="200">
+    <cfRule type="expression" dxfId="210" priority="200">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143:H147">
-    <cfRule type="expression" dxfId="190" priority="195">
+    <cfRule type="expression" dxfId="209" priority="195">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="196">
+    <cfRule type="expression" dxfId="208" priority="196">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="197">
+    <cfRule type="expression" dxfId="207" priority="197">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H466:H469 H435:H438 H425:H428 H390:H393 H382:H385 H355:H358 H331:H334 H323:H326 H310:H313 H295:H298 H278:H281 H267:H270 H154:H157 H183:H187 H209:H213 H222:H226 H230:H234 H253:H257 H370:H374 H163:H167 H404:H408 H417:H421 H445:H449 H479:H483 H487:H491 H495:H499 H516:H520">
-    <cfRule type="expression" dxfId="187" priority="192">
+    <cfRule type="expression" dxfId="206" priority="192">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="193">
+    <cfRule type="expression" dxfId="205" priority="193">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="194">
+    <cfRule type="expression" dxfId="204" priority="194">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H466:H469 H435:H438 H425:H428 H390:H393 H382:H385 H355:H358 H331:H334 H323:H326 H310:H313 H295:H298 H278:H281 H267:H270 H154:H157 H183:H187 H209:H213 H222:H226 H230:H234 H253:H257 H370:H374 H163:H167 H404:H408 H417:H421 H445:H449 H479:H483 H487:H491 H495:H499 H516:H520">
-    <cfRule type="expression" dxfId="184" priority="189">
+    <cfRule type="expression" dxfId="203" priority="189">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="190">
+    <cfRule type="expression" dxfId="202" priority="190">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="191">
+    <cfRule type="expression" dxfId="201" priority="191">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:G158">
-    <cfRule type="expression" dxfId="181" priority="180">
+    <cfRule type="expression" dxfId="200" priority="180">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="181">
+    <cfRule type="expression" dxfId="199" priority="181">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="182">
+    <cfRule type="expression" dxfId="198" priority="182">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:G158">
-    <cfRule type="expression" dxfId="178" priority="175">
+    <cfRule type="expression" dxfId="197" priority="175">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="176">
+    <cfRule type="expression" dxfId="196" priority="176">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="177">
+    <cfRule type="expression" dxfId="195" priority="177">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="expression" dxfId="175" priority="178">
+    <cfRule type="expression" dxfId="194" priority="178">
       <formula>NOT(VLOOKUP(F158,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="179">
+    <cfRule type="expression" dxfId="193" priority="179">
       <formula>(VLOOKUP(F158,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158">
-    <cfRule type="expression" dxfId="173" priority="172">
+    <cfRule type="expression" dxfId="192" priority="172">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="173">
+    <cfRule type="expression" dxfId="191" priority="173">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="174">
+    <cfRule type="expression" dxfId="190" priority="174">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158">
-    <cfRule type="expression" dxfId="170" priority="169">
+    <cfRule type="expression" dxfId="189" priority="169">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="170">
+    <cfRule type="expression" dxfId="188" priority="170">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="171">
+    <cfRule type="expression" dxfId="187" priority="171">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E271:G271">
-    <cfRule type="expression" dxfId="167" priority="166">
+    <cfRule type="expression" dxfId="186" priority="166">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="167">
+    <cfRule type="expression" dxfId="185" priority="167">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="168">
+    <cfRule type="expression" dxfId="184" priority="168">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E271:G271">
-    <cfRule type="expression" dxfId="164" priority="161">
+    <cfRule type="expression" dxfId="183" priority="161">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="162">
+    <cfRule type="expression" dxfId="182" priority="162">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="163">
+    <cfRule type="expression" dxfId="181" priority="163">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F271">
-    <cfRule type="expression" dxfId="161" priority="164">
+    <cfRule type="expression" dxfId="180" priority="164">
       <formula>NOT(VLOOKUP(F271,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="165">
+    <cfRule type="expression" dxfId="179" priority="165">
       <formula>(VLOOKUP(F271,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H271">
-    <cfRule type="expression" dxfId="159" priority="158">
+    <cfRule type="expression" dxfId="178" priority="158">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="159">
+    <cfRule type="expression" dxfId="177" priority="159">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="160">
+    <cfRule type="expression" dxfId="176" priority="160">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H271">
-    <cfRule type="expression" dxfId="156" priority="155">
+    <cfRule type="expression" dxfId="175" priority="155">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="156">
+    <cfRule type="expression" dxfId="174" priority="156">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="157">
+    <cfRule type="expression" dxfId="173" priority="157">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E394:G394">
-    <cfRule type="expression" dxfId="153" priority="152">
+    <cfRule type="expression" dxfId="172" priority="152">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="153">
+    <cfRule type="expression" dxfId="171" priority="153">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="154">
+    <cfRule type="expression" dxfId="170" priority="154">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E394:G394">
-    <cfRule type="expression" dxfId="150" priority="147">
+    <cfRule type="expression" dxfId="169" priority="147">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="148">
+    <cfRule type="expression" dxfId="168" priority="148">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="149">
+    <cfRule type="expression" dxfId="167" priority="149">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394">
-    <cfRule type="expression" dxfId="147" priority="150">
+    <cfRule type="expression" dxfId="166" priority="150">
       <formula>NOT(VLOOKUP(F394,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="151">
+    <cfRule type="expression" dxfId="165" priority="151">
       <formula>(VLOOKUP(F394,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H394">
-    <cfRule type="expression" dxfId="145" priority="144">
+    <cfRule type="expression" dxfId="164" priority="144">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="145">
+    <cfRule type="expression" dxfId="163" priority="145">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="146">
+    <cfRule type="expression" dxfId="162" priority="146">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H394">
-    <cfRule type="expression" dxfId="142" priority="141">
+    <cfRule type="expression" dxfId="161" priority="141">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="142">
+    <cfRule type="expression" dxfId="160" priority="142">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="143">
+    <cfRule type="expression" dxfId="159" priority="143">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E386:G386">
-    <cfRule type="expression" dxfId="139" priority="138">
+    <cfRule type="expression" dxfId="158" priority="138">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="139">
+    <cfRule type="expression" dxfId="157" priority="139">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="140">
+    <cfRule type="expression" dxfId="156" priority="140">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E386:G386">
-    <cfRule type="expression" dxfId="136" priority="133">
+    <cfRule type="expression" dxfId="155" priority="133">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="134">
+    <cfRule type="expression" dxfId="154" priority="134">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="135">
+    <cfRule type="expression" dxfId="153" priority="135">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F386">
-    <cfRule type="expression" dxfId="133" priority="136">
+    <cfRule type="expression" dxfId="152" priority="136">
       <formula>NOT(VLOOKUP(F386,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="137">
+    <cfRule type="expression" dxfId="151" priority="137">
       <formula>(VLOOKUP(F386,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H386">
-    <cfRule type="expression" dxfId="131" priority="130">
+    <cfRule type="expression" dxfId="150" priority="130">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="131">
+    <cfRule type="expression" dxfId="149" priority="131">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="132">
+    <cfRule type="expression" dxfId="148" priority="132">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H386">
-    <cfRule type="expression" dxfId="128" priority="127">
+    <cfRule type="expression" dxfId="147" priority="127">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="128">
+    <cfRule type="expression" dxfId="146" priority="128">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="129">
+    <cfRule type="expression" dxfId="145" priority="129">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E359:G359">
-    <cfRule type="expression" dxfId="125" priority="124">
+    <cfRule type="expression" dxfId="144" priority="124">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="125">
+    <cfRule type="expression" dxfId="143" priority="125">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="126">
+    <cfRule type="expression" dxfId="142" priority="126">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E359:G359">
-    <cfRule type="expression" dxfId="122" priority="119">
+    <cfRule type="expression" dxfId="141" priority="119">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="120">
+    <cfRule type="expression" dxfId="140" priority="120">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="121">
+    <cfRule type="expression" dxfId="139" priority="121">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F359">
-    <cfRule type="expression" dxfId="119" priority="122">
+    <cfRule type="expression" dxfId="138" priority="122">
       <formula>NOT(VLOOKUP(F359,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="123">
+    <cfRule type="expression" dxfId="137" priority="123">
       <formula>(VLOOKUP(F359,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H359">
-    <cfRule type="expression" dxfId="117" priority="116">
+    <cfRule type="expression" dxfId="136" priority="116">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="117">
+    <cfRule type="expression" dxfId="135" priority="117">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="118">
+    <cfRule type="expression" dxfId="134" priority="118">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H359">
-    <cfRule type="expression" dxfId="114" priority="113">
+    <cfRule type="expression" dxfId="133" priority="113">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="114">
+    <cfRule type="expression" dxfId="132" priority="114">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="115">
+    <cfRule type="expression" dxfId="131" priority="115">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E335:G335">
-    <cfRule type="expression" dxfId="111" priority="110">
+    <cfRule type="expression" dxfId="130" priority="110">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="111">
+    <cfRule type="expression" dxfId="129" priority="111">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="112">
+    <cfRule type="expression" dxfId="128" priority="112">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E335:G335">
-    <cfRule type="expression" dxfId="108" priority="105">
+    <cfRule type="expression" dxfId="127" priority="105">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="106">
+    <cfRule type="expression" dxfId="126" priority="106">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="107">
+    <cfRule type="expression" dxfId="125" priority="107">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F335">
-    <cfRule type="expression" dxfId="105" priority="108">
+    <cfRule type="expression" dxfId="124" priority="108">
       <formula>NOT(VLOOKUP(F335,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="109">
+    <cfRule type="expression" dxfId="123" priority="109">
       <formula>(VLOOKUP(F335,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H335">
-    <cfRule type="expression" dxfId="103" priority="102">
+    <cfRule type="expression" dxfId="122" priority="102">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="103">
+    <cfRule type="expression" dxfId="121" priority="103">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="104">
+    <cfRule type="expression" dxfId="120" priority="104">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H335">
-    <cfRule type="expression" dxfId="100" priority="99">
+    <cfRule type="expression" dxfId="119" priority="99">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="100">
+    <cfRule type="expression" dxfId="118" priority="100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="101">
+    <cfRule type="expression" dxfId="117" priority="101">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E327:G327">
-    <cfRule type="expression" dxfId="97" priority="96">
+    <cfRule type="expression" dxfId="116" priority="96">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="97">
+    <cfRule type="expression" dxfId="115" priority="97">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="98">
+    <cfRule type="expression" dxfId="114" priority="98">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E327:G327">
-    <cfRule type="expression" dxfId="94" priority="91">
+    <cfRule type="expression" dxfId="113" priority="91">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="92">
+    <cfRule type="expression" dxfId="112" priority="92">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="93">
+    <cfRule type="expression" dxfId="111" priority="93">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F327">
-    <cfRule type="expression" dxfId="91" priority="94">
+    <cfRule type="expression" dxfId="110" priority="94">
       <formula>NOT(VLOOKUP(F327,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="95">
+    <cfRule type="expression" dxfId="109" priority="95">
       <formula>(VLOOKUP(F327,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H327">
-    <cfRule type="expression" dxfId="89" priority="88">
+    <cfRule type="expression" dxfId="108" priority="88">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="89">
+    <cfRule type="expression" dxfId="107" priority="89">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="90">
+    <cfRule type="expression" dxfId="106" priority="90">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H327">
-    <cfRule type="expression" dxfId="86" priority="85">
+    <cfRule type="expression" dxfId="105" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="86">
+    <cfRule type="expression" dxfId="104" priority="86">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="87">
+    <cfRule type="expression" dxfId="103" priority="87">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E314:G314">
-    <cfRule type="expression" dxfId="83" priority="82">
+    <cfRule type="expression" dxfId="102" priority="82">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="101" priority="83">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="84">
+    <cfRule type="expression" dxfId="100" priority="84">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E314:G314">
-    <cfRule type="expression" dxfId="80" priority="77">
+    <cfRule type="expression" dxfId="99" priority="77">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="78">
+    <cfRule type="expression" dxfId="98" priority="78">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="79">
+    <cfRule type="expression" dxfId="97" priority="79">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F314">
-    <cfRule type="expression" dxfId="77" priority="80">
+    <cfRule type="expression" dxfId="96" priority="80">
       <formula>NOT(VLOOKUP(F314,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="81">
+    <cfRule type="expression" dxfId="95" priority="81">
       <formula>(VLOOKUP(F314,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H314">
-    <cfRule type="expression" dxfId="75" priority="74">
+    <cfRule type="expression" dxfId="94" priority="74">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="93" priority="75">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="76">
+    <cfRule type="expression" dxfId="92" priority="76">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H314">
-    <cfRule type="expression" dxfId="72" priority="71">
+    <cfRule type="expression" dxfId="91" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="90" priority="72">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="73">
+    <cfRule type="expression" dxfId="89" priority="73">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E299:G299">
-    <cfRule type="expression" dxfId="69" priority="68">
+    <cfRule type="expression" dxfId="88" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="87" priority="69">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="70">
+    <cfRule type="expression" dxfId="86" priority="70">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E299:G299">
-    <cfRule type="expression" dxfId="66" priority="63">
+    <cfRule type="expression" dxfId="85" priority="63">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="64">
+    <cfRule type="expression" dxfId="84" priority="64">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="83" priority="65">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="expression" dxfId="63" priority="66">
+    <cfRule type="expression" dxfId="82" priority="66">
       <formula>NOT(VLOOKUP(F299,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="67">
+    <cfRule type="expression" dxfId="81" priority="67">
       <formula>(VLOOKUP(F299,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H299">
-    <cfRule type="expression" dxfId="61" priority="60">
+    <cfRule type="expression" dxfId="80" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="61">
+    <cfRule type="expression" dxfId="79" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="62">
+    <cfRule type="expression" dxfId="78" priority="62">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H299">
-    <cfRule type="expression" dxfId="58" priority="57">
+    <cfRule type="expression" dxfId="77" priority="57">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="76" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="59">
+    <cfRule type="expression" dxfId="75" priority="59">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E282:G282">
-    <cfRule type="expression" dxfId="55" priority="54">
+    <cfRule type="expression" dxfId="74" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="73" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="56">
+    <cfRule type="expression" dxfId="72" priority="56">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E282:G282">
-    <cfRule type="expression" dxfId="52" priority="49">
+    <cfRule type="expression" dxfId="71" priority="49">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="50">
+    <cfRule type="expression" dxfId="70" priority="50">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="69" priority="51">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F282">
-    <cfRule type="expression" dxfId="49" priority="52">
+    <cfRule type="expression" dxfId="68" priority="52">
       <formula>NOT(VLOOKUP(F282,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="53">
+    <cfRule type="expression" dxfId="67" priority="53">
       <formula>(VLOOKUP(F282,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H282">
-    <cfRule type="expression" dxfId="47" priority="46">
+    <cfRule type="expression" dxfId="66" priority="46">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="65" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="48">
+    <cfRule type="expression" dxfId="64" priority="48">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H282">
-    <cfRule type="expression" dxfId="44" priority="43">
+    <cfRule type="expression" dxfId="63" priority="43">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="62" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45">
+    <cfRule type="expression" dxfId="61" priority="45">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E429:G429">
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="60" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="59" priority="41">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42">
+    <cfRule type="expression" dxfId="58" priority="42">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E429:G429">
-    <cfRule type="expression" dxfId="38" priority="35">
+    <cfRule type="expression" dxfId="57" priority="35">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="36">
+    <cfRule type="expression" dxfId="56" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="55" priority="37">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F429">
-    <cfRule type="expression" dxfId="35" priority="38">
+    <cfRule type="expression" dxfId="54" priority="38">
       <formula>NOT(VLOOKUP(F429,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="39">
+    <cfRule type="expression" dxfId="53" priority="39">
       <formula>(VLOOKUP(F429,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H429">
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="52" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="51" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="50" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H429">
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="49" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="48" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="31">
+    <cfRule type="expression" dxfId="47" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E439:G439">
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="46" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="45" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="28">
+    <cfRule type="expression" dxfId="44" priority="28">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E439:G439">
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="43" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="42" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="41" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F439">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>NOT(VLOOKUP(F439,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>(VLOOKUP(F439,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H439">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="38" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="37" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H439">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="35" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="34" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E470:G470">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E470:G470">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F470">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>NOT(VLOOKUP(F470,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>(VLOOKUP(F470,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H470">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H470">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26005,18 +26005,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26035,14 +26035,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -26054,4 +26046,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>